--- a/凭证编号.xlsx
+++ b/凭证编号.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\untitle\备用程序\凭证侧边与封面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonprojects\DocCoverautofilling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524FF102-279C-446D-A2C6-0CD25CF84C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D661F67F-E4D7-48D1-BDDF-B738633846FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="213">
   <si>
     <t>利润中心编号</t>
   </si>
@@ -644,13 +644,36 @@
   </si>
   <si>
     <t>中建八局第三建设有限公司常州事业部</t>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G800000285中建八局第三建设有限公司南京分公司</t>
+  </si>
+  <si>
+    <t>G800000285中建八局第三建设有限公司南京分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润中心组编码与名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +699,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -803,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,6 +861,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,22 +1140,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:K281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88.5546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="5" width="10.77734375" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,8 +1178,20 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1161,8 +1211,20 @@
       <c r="G2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I2" s="7">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1182,8 +1244,20 @@
       <c r="G3" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I3" s="7">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7">
+        <v>31</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1203,8 +1277,20 @@
       <c r="G4" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7">
+        <v>31</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1224,8 +1310,20 @@
       <c r="G5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7">
+        <v>31</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1343,20 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1376,20 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I7" s="7">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1287,8 +1409,20 @@
       <c r="G8" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I8" s="7">
+        <v>12</v>
+      </c>
+      <c r="J8" s="7">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1308,8 +1442,20 @@
       <c r="G9" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I9" s="7">
+        <v>12</v>
+      </c>
+      <c r="J9" s="7">
+        <v>31</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1329,8 +1475,20 @@
       <c r="G10" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I10" s="7">
+        <v>12</v>
+      </c>
+      <c r="J10" s="7">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1350,8 +1508,20 @@
       <c r="G11" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I11" s="7">
+        <v>12</v>
+      </c>
+      <c r="J11" s="7">
+        <v>31</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1371,8 +1541,20 @@
       <c r="G12" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I12" s="7">
+        <v>12</v>
+      </c>
+      <c r="J12" s="7">
+        <v>31</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1392,8 +1574,20 @@
       <c r="G13" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12</v>
+      </c>
+      <c r="J13" s="7">
+        <v>31</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1413,8 +1607,20 @@
       <c r="G14" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1434,8 +1640,20 @@
       <c r="G15" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I15" s="7">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7">
+        <v>31</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1455,8 +1673,20 @@
       <c r="G16" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I16" s="7">
+        <v>12</v>
+      </c>
+      <c r="J16" s="7">
+        <v>31</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1476,8 +1706,20 @@
       <c r="G17" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I17" s="7">
+        <v>12</v>
+      </c>
+      <c r="J17" s="7">
+        <v>31</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1497,8 +1739,20 @@
       <c r="G18" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I18" s="7">
+        <v>12</v>
+      </c>
+      <c r="J18" s="7">
+        <v>31</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1518,8 +1772,20 @@
       <c r="G19" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I19" s="7">
+        <v>12</v>
+      </c>
+      <c r="J19" s="7">
+        <v>31</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1539,8 +1805,20 @@
       <c r="G20" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I20" s="7">
+        <v>12</v>
+      </c>
+      <c r="J20" s="7">
+        <v>31</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1560,8 +1838,20 @@
       <c r="G21" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I21" s="7">
+        <v>12</v>
+      </c>
+      <c r="J21" s="7">
+        <v>31</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1581,8 +1871,20 @@
       <c r="G22" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I22" s="7">
+        <v>12</v>
+      </c>
+      <c r="J22" s="7">
+        <v>31</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1602,8 +1904,20 @@
       <c r="G23" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I23" s="7">
+        <v>12</v>
+      </c>
+      <c r="J23" s="7">
+        <v>31</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1623,8 +1937,20 @@
       <c r="G24" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I24" s="7">
+        <v>12</v>
+      </c>
+      <c r="J24" s="7">
+        <v>31</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1644,8 +1970,20 @@
       <c r="G25" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I25" s="7">
+        <v>12</v>
+      </c>
+      <c r="J25" s="7">
+        <v>31</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1665,8 +2003,20 @@
       <c r="G26" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I26" s="7">
+        <v>12</v>
+      </c>
+      <c r="J26" s="7">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1686,8 +2036,20 @@
       <c r="G27" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I27" s="7">
+        <v>12</v>
+      </c>
+      <c r="J27" s="7">
+        <v>31</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1707,8 +2069,20 @@
       <c r="G28" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I28" s="7">
+        <v>12</v>
+      </c>
+      <c r="J28" s="7">
+        <v>31</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1728,8 +2102,20 @@
       <c r="G29" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I29" s="7">
+        <v>12</v>
+      </c>
+      <c r="J29" s="7">
+        <v>31</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1749,8 +2135,20 @@
       <c r="G30" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I30" s="7">
+        <v>12</v>
+      </c>
+      <c r="J30" s="7">
+        <v>31</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1770,8 +2168,20 @@
       <c r="G31" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I31" s="7">
+        <v>12</v>
+      </c>
+      <c r="J31" s="7">
+        <v>31</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1791,8 +2201,20 @@
       <c r="G32" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I32" s="7">
+        <v>12</v>
+      </c>
+      <c r="J32" s="7">
+        <v>31</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1812,8 +2234,20 @@
       <c r="G33" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I33" s="7">
+        <v>12</v>
+      </c>
+      <c r="J33" s="7">
+        <v>31</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -1833,8 +2267,20 @@
       <c r="G34" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I34" s="7">
+        <v>12</v>
+      </c>
+      <c r="J34" s="7">
+        <v>31</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -1854,8 +2300,20 @@
       <c r="G35" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I35" s="7">
+        <v>12</v>
+      </c>
+      <c r="J35" s="7">
+        <v>31</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -1875,8 +2333,20 @@
       <c r="G36" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I36" s="7">
+        <v>12</v>
+      </c>
+      <c r="J36" s="7">
+        <v>31</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -1896,8 +2366,20 @@
       <c r="G37" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I37" s="7">
+        <v>12</v>
+      </c>
+      <c r="J37" s="7">
+        <v>31</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -1917,8 +2399,20 @@
       <c r="G38" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I38" s="7">
+        <v>12</v>
+      </c>
+      <c r="J38" s="7">
+        <v>31</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -1938,8 +2432,20 @@
       <c r="G39" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I39" s="7">
+        <v>12</v>
+      </c>
+      <c r="J39" s="7">
+        <v>31</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
@@ -1959,8 +2465,20 @@
       <c r="G40" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I40" s="7">
+        <v>12</v>
+      </c>
+      <c r="J40" s="7">
+        <v>31</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -1980,8 +2498,20 @@
       <c r="G41" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I41" s="7">
+        <v>12</v>
+      </c>
+      <c r="J41" s="7">
+        <v>31</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -2001,8 +2531,20 @@
       <c r="G42" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I42" s="7">
+        <v>12</v>
+      </c>
+      <c r="J42" s="7">
+        <v>31</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2022,8 +2564,20 @@
       <c r="G43" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I43" s="7">
+        <v>12</v>
+      </c>
+      <c r="J43" s="7">
+        <v>31</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>74</v>
       </c>
@@ -2043,8 +2597,20 @@
       <c r="G44" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H44" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I44" s="7">
+        <v>12</v>
+      </c>
+      <c r="J44" s="7">
+        <v>31</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>76</v>
       </c>
@@ -2063,8 +2629,20 @@
       <c r="G45" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H45" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I45" s="7">
+        <v>12</v>
+      </c>
+      <c r="J45" s="7">
+        <v>31</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>76</v>
       </c>
@@ -2083,8 +2661,20 @@
       <c r="G46" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H46" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I46" s="7">
+        <v>12</v>
+      </c>
+      <c r="J46" s="7">
+        <v>31</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>78</v>
       </c>
@@ -2103,8 +2693,20 @@
       <c r="G47" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H47" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I47" s="7">
+        <v>12</v>
+      </c>
+      <c r="J47" s="7">
+        <v>31</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
@@ -2123,8 +2725,20 @@
       <c r="G48" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H48" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I48" s="7">
+        <v>12</v>
+      </c>
+      <c r="J48" s="7">
+        <v>31</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>80</v>
       </c>
@@ -2143,8 +2757,20 @@
       <c r="G49" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H49" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I49" s="7">
+        <v>12</v>
+      </c>
+      <c r="J49" s="7">
+        <v>31</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -2163,8 +2789,20 @@
       <c r="G50" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H50" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I50" s="7">
+        <v>12</v>
+      </c>
+      <c r="J50" s="7">
+        <v>31</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>82</v>
       </c>
@@ -2183,8 +2821,20 @@
       <c r="G51" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H51" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I51" s="7">
+        <v>12</v>
+      </c>
+      <c r="J51" s="7">
+        <v>31</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>82</v>
       </c>
@@ -2203,8 +2853,20 @@
       <c r="G52" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H52" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I52" s="7">
+        <v>12</v>
+      </c>
+      <c r="J52" s="7">
+        <v>31</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>84</v>
       </c>
@@ -2223,8 +2885,20 @@
       <c r="G53" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H53" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I53" s="7">
+        <v>12</v>
+      </c>
+      <c r="J53" s="7">
+        <v>31</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>84</v>
       </c>
@@ -2243,8 +2917,20 @@
       <c r="G54" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H54" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I54" s="7">
+        <v>12</v>
+      </c>
+      <c r="J54" s="7">
+        <v>31</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>84</v>
       </c>
@@ -2263,8 +2949,20 @@
       <c r="G55" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H55" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I55" s="7">
+        <v>12</v>
+      </c>
+      <c r="J55" s="7">
+        <v>31</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>86</v>
       </c>
@@ -2283,8 +2981,20 @@
       <c r="G56" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H56" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I56" s="7">
+        <v>12</v>
+      </c>
+      <c r="J56" s="7">
+        <v>31</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>86</v>
       </c>
@@ -2303,8 +3013,20 @@
       <c r="G57" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H57" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I57" s="7">
+        <v>12</v>
+      </c>
+      <c r="J57" s="7">
+        <v>31</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>88</v>
       </c>
@@ -2323,8 +3045,20 @@
       <c r="G58" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H58" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I58" s="7">
+        <v>12</v>
+      </c>
+      <c r="J58" s="7">
+        <v>31</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>88</v>
       </c>
@@ -2343,8 +3077,20 @@
       <c r="G59" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H59" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I59" s="7">
+        <v>12</v>
+      </c>
+      <c r="J59" s="7">
+        <v>31</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>88</v>
       </c>
@@ -2363,8 +3109,20 @@
       <c r="G60" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H60" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I60" s="7">
+        <v>12</v>
+      </c>
+      <c r="J60" s="7">
+        <v>31</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>88</v>
       </c>
@@ -2383,8 +3141,20 @@
       <c r="G61" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H61" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I61" s="7">
+        <v>12</v>
+      </c>
+      <c r="J61" s="7">
+        <v>31</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>88</v>
       </c>
@@ -2403,8 +3173,20 @@
       <c r="G62" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H62" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I62" s="7">
+        <v>12</v>
+      </c>
+      <c r="J62" s="7">
+        <v>31</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>88</v>
       </c>
@@ -2423,8 +3205,20 @@
       <c r="G63" s="7">
         <v>29</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H63" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I63" s="7">
+        <v>12</v>
+      </c>
+      <c r="J63" s="7">
+        <v>31</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>88</v>
       </c>
@@ -2443,8 +3237,20 @@
       <c r="G64" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H64" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I64" s="7">
+        <v>12</v>
+      </c>
+      <c r="J64" s="7">
+        <v>31</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>90</v>
       </c>
@@ -2463,8 +3269,20 @@
       <c r="G65" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H65" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I65" s="7">
+        <v>12</v>
+      </c>
+      <c r="J65" s="7">
+        <v>31</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -2483,8 +3301,20 @@
       <c r="G66" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H66" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I66" s="7">
+        <v>12</v>
+      </c>
+      <c r="J66" s="7">
+        <v>31</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
@@ -2503,8 +3333,20 @@
       <c r="G67" s="7">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H67" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I67" s="7">
+        <v>12</v>
+      </c>
+      <c r="J67" s="7">
+        <v>31</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -2523,8 +3365,20 @@
       <c r="G68" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H68" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I68" s="7">
+        <v>12</v>
+      </c>
+      <c r="J68" s="7">
+        <v>31</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -2543,8 +3397,20 @@
       <c r="G69" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H69" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I69" s="7">
+        <v>12</v>
+      </c>
+      <c r="J69" s="7">
+        <v>31</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -2563,8 +3429,20 @@
       <c r="G70" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H70" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I70" s="7">
+        <v>12</v>
+      </c>
+      <c r="J70" s="7">
+        <v>31</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -2583,8 +3461,20 @@
       <c r="G71" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H71" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I71" s="7">
+        <v>12</v>
+      </c>
+      <c r="J71" s="7">
+        <v>31</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -2603,8 +3493,20 @@
       <c r="G72" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H72" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I72" s="7">
+        <v>12</v>
+      </c>
+      <c r="J72" s="7">
+        <v>31</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -2623,8 +3525,20 @@
       <c r="G73" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H73" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I73" s="7">
+        <v>12</v>
+      </c>
+      <c r="J73" s="7">
+        <v>31</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
@@ -2643,8 +3557,20 @@
       <c r="G74" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H74" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I74" s="7">
+        <v>12</v>
+      </c>
+      <c r="J74" s="7">
+        <v>31</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -2663,8 +3589,20 @@
       <c r="G75" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H75" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I75" s="7">
+        <v>12</v>
+      </c>
+      <c r="J75" s="7">
+        <v>31</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -2683,8 +3621,20 @@
       <c r="G76" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H76" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I76" s="7">
+        <v>12</v>
+      </c>
+      <c r="J76" s="7">
+        <v>31</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -2703,8 +3653,20 @@
       <c r="G77" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H77" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I77" s="7">
+        <v>12</v>
+      </c>
+      <c r="J77" s="7">
+        <v>31</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>98</v>
       </c>
@@ -2723,8 +3685,20 @@
       <c r="G78" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H78" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I78" s="7">
+        <v>12</v>
+      </c>
+      <c r="J78" s="7">
+        <v>31</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>98</v>
       </c>
@@ -2743,8 +3717,20 @@
       <c r="G79" s="7">
         <v>41</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H79" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I79" s="7">
+        <v>12</v>
+      </c>
+      <c r="J79" s="7">
+        <v>31</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>98</v>
       </c>
@@ -2763,8 +3749,20 @@
       <c r="G80" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H80" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I80" s="7">
+        <v>12</v>
+      </c>
+      <c r="J80" s="7">
+        <v>31</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>98</v>
       </c>
@@ -2783,8 +3781,20 @@
       <c r="G81" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H81" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I81" s="7">
+        <v>12</v>
+      </c>
+      <c r="J81" s="7">
+        <v>31</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>98</v>
       </c>
@@ -2803,8 +3813,20 @@
       <c r="G82" s="7">
         <v>44</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H82" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I82" s="7">
+        <v>12</v>
+      </c>
+      <c r="J82" s="7">
+        <v>31</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>98</v>
       </c>
@@ -2823,8 +3845,20 @@
       <c r="G83" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H83" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I83" s="7">
+        <v>12</v>
+      </c>
+      <c r="J83" s="7">
+        <v>31</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>98</v>
       </c>
@@ -2843,8 +3877,20 @@
       <c r="G84" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H84" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I84" s="7">
+        <v>12</v>
+      </c>
+      <c r="J84" s="7">
+        <v>31</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>100</v>
       </c>
@@ -2863,8 +3909,20 @@
       <c r="G85" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H85" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I85" s="7">
+        <v>12</v>
+      </c>
+      <c r="J85" s="7">
+        <v>31</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>100</v>
       </c>
@@ -2883,8 +3941,20 @@
       <c r="G86" s="7">
         <v>47</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H86" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I86" s="7">
+        <v>12</v>
+      </c>
+      <c r="J86" s="7">
+        <v>31</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>102</v>
       </c>
@@ -2903,8 +3973,20 @@
       <c r="G87" s="7">
         <v>47</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H87" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I87" s="7">
+        <v>12</v>
+      </c>
+      <c r="J87" s="7">
+        <v>31</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>102</v>
       </c>
@@ -2923,8 +4005,20 @@
       <c r="G88" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H88" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I88" s="7">
+        <v>12</v>
+      </c>
+      <c r="J88" s="7">
+        <v>31</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>102</v>
       </c>
@@ -2943,8 +4037,20 @@
       <c r="G89" s="7">
         <v>49</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H89" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I89" s="7">
+        <v>12</v>
+      </c>
+      <c r="J89" s="7">
+        <v>31</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>102</v>
       </c>
@@ -2963,8 +4069,20 @@
       <c r="G90" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H90" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I90" s="7">
+        <v>12</v>
+      </c>
+      <c r="J90" s="7">
+        <v>31</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>104</v>
       </c>
@@ -2983,8 +4101,20 @@
       <c r="G91" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H91" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I91" s="7">
+        <v>12</v>
+      </c>
+      <c r="J91" s="7">
+        <v>31</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>104</v>
       </c>
@@ -3003,8 +4133,20 @@
       <c r="G92" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H92" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I92" s="7">
+        <v>12</v>
+      </c>
+      <c r="J92" s="7">
+        <v>31</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>104</v>
       </c>
@@ -3023,8 +4165,20 @@
       <c r="G93" s="7">
         <v>52</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H93" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I93" s="7">
+        <v>12</v>
+      </c>
+      <c r="J93" s="7">
+        <v>31</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>104</v>
       </c>
@@ -3043,8 +4197,20 @@
       <c r="G94" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H94" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I94" s="7">
+        <v>12</v>
+      </c>
+      <c r="J94" s="7">
+        <v>31</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>104</v>
       </c>
@@ -3063,8 +4229,20 @@
       <c r="G95" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H95" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I95" s="7">
+        <v>12</v>
+      </c>
+      <c r="J95" s="7">
+        <v>31</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>104</v>
       </c>
@@ -3083,8 +4261,20 @@
       <c r="G96" s="7">
         <v>55</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H96" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I96" s="7">
+        <v>12</v>
+      </c>
+      <c r="J96" s="7">
+        <v>31</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>104</v>
       </c>
@@ -3103,8 +4293,20 @@
       <c r="G97" s="7">
         <v>56</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H97" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I97" s="7">
+        <v>12</v>
+      </c>
+      <c r="J97" s="7">
+        <v>31</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
@@ -3123,8 +4325,20 @@
       <c r="G98" s="7">
         <v>56</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H98" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I98" s="7">
+        <v>12</v>
+      </c>
+      <c r="J98" s="7">
+        <v>31</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>106</v>
       </c>
@@ -3143,8 +4357,20 @@
       <c r="G99" s="7">
         <v>57</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H99" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I99" s="7">
+        <v>12</v>
+      </c>
+      <c r="J99" s="7">
+        <v>31</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>106</v>
       </c>
@@ -3163,8 +4389,20 @@
       <c r="G100" s="7">
         <v>58</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H100" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I100" s="7">
+        <v>12</v>
+      </c>
+      <c r="J100" s="7">
+        <v>31</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>106</v>
       </c>
@@ -3183,8 +4421,20 @@
       <c r="G101" s="7">
         <v>59</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H101" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I101" s="7">
+        <v>12</v>
+      </c>
+      <c r="J101" s="7">
+        <v>31</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>106</v>
       </c>
@@ -3203,8 +4453,20 @@
       <c r="G102" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H102" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I102" s="7">
+        <v>12</v>
+      </c>
+      <c r="J102" s="7">
+        <v>31</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>108</v>
       </c>
@@ -3223,8 +4485,20 @@
       <c r="G103" s="7">
         <v>60</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H103" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I103" s="7">
+        <v>12</v>
+      </c>
+      <c r="J103" s="7">
+        <v>31</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>108</v>
       </c>
@@ -3243,8 +4517,20 @@
       <c r="G104" s="7">
         <v>61</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H104" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I104" s="7">
+        <v>12</v>
+      </c>
+      <c r="J104" s="7">
+        <v>31</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>110</v>
       </c>
@@ -3263,8 +4549,20 @@
       <c r="G105" s="7">
         <v>61</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H105" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I105" s="7">
+        <v>12</v>
+      </c>
+      <c r="J105" s="7">
+        <v>31</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>110</v>
       </c>
@@ -3283,8 +4581,20 @@
       <c r="G106" s="7">
         <v>62</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H106" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I106" s="7">
+        <v>12</v>
+      </c>
+      <c r="J106" s="7">
+        <v>31</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>112</v>
       </c>
@@ -3303,8 +4613,20 @@
       <c r="G107" s="7">
         <v>62</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H107" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I107" s="7">
+        <v>12</v>
+      </c>
+      <c r="J107" s="7">
+        <v>31</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>114</v>
       </c>
@@ -3323,8 +4645,20 @@
       <c r="G108" s="7">
         <v>62</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H108" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I108" s="7">
+        <v>12</v>
+      </c>
+      <c r="J108" s="7">
+        <v>31</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>114</v>
       </c>
@@ -3343,8 +4677,20 @@
       <c r="G109" s="7">
         <v>63</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H109" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I109" s="7">
+        <v>12</v>
+      </c>
+      <c r="J109" s="7">
+        <v>31</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>114</v>
       </c>
@@ -3363,8 +4709,20 @@
       <c r="G110" s="7">
         <v>64</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H110" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I110" s="7">
+        <v>12</v>
+      </c>
+      <c r="J110" s="7">
+        <v>31</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -3383,8 +4741,20 @@
       <c r="G111" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H111" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I111" s="7">
+        <v>12</v>
+      </c>
+      <c r="J111" s="7">
+        <v>31</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
@@ -3403,8 +4773,20 @@
       <c r="G112" s="7">
         <v>66</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H112" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I112" s="7">
+        <v>12</v>
+      </c>
+      <c r="J112" s="7">
+        <v>31</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>114</v>
       </c>
@@ -3423,8 +4805,20 @@
       <c r="G113" s="7">
         <v>67</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H113" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I113" s="7">
+        <v>12</v>
+      </c>
+      <c r="J113" s="7">
+        <v>31</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -3443,8 +4837,20 @@
       <c r="G114" s="7">
         <v>68</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H114" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I114" s="7">
+        <v>12</v>
+      </c>
+      <c r="J114" s="7">
+        <v>31</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>116</v>
       </c>
@@ -3463,8 +4869,20 @@
       <c r="G115" s="7">
         <v>68</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H115" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I115" s="7">
+        <v>12</v>
+      </c>
+      <c r="J115" s="7">
+        <v>31</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
@@ -3483,8 +4901,20 @@
       <c r="G116" s="7">
         <v>69</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H116" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I116" s="7">
+        <v>12</v>
+      </c>
+      <c r="J116" s="7">
+        <v>31</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -3503,8 +4933,20 @@
       <c r="G117" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H117" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I117" s="7">
+        <v>12</v>
+      </c>
+      <c r="J117" s="7">
+        <v>31</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
@@ -3523,8 +4965,20 @@
       <c r="G118" s="7">
         <v>71</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H118" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I118" s="7">
+        <v>12</v>
+      </c>
+      <c r="J118" s="7">
+        <v>31</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -3543,8 +4997,20 @@
       <c r="G119" s="7">
         <v>71</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H119" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I119" s="7">
+        <v>12</v>
+      </c>
+      <c r="J119" s="7">
+        <v>31</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -3563,8 +5029,20 @@
       <c r="G120" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H120" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I120" s="7">
+        <v>12</v>
+      </c>
+      <c r="J120" s="7">
+        <v>31</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>118</v>
       </c>
@@ -3583,8 +5061,20 @@
       <c r="G121" s="7">
         <v>73</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H121" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I121" s="7">
+        <v>12</v>
+      </c>
+      <c r="J121" s="7">
+        <v>31</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>118</v>
       </c>
@@ -3603,8 +5093,20 @@
       <c r="G122" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H122" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I122" s="7">
+        <v>12</v>
+      </c>
+      <c r="J122" s="7">
+        <v>31</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>118</v>
       </c>
@@ -3623,8 +5125,20 @@
       <c r="G123" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H123" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I123" s="7">
+        <v>12</v>
+      </c>
+      <c r="J123" s="7">
+        <v>31</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>120</v>
       </c>
@@ -3643,8 +5157,20 @@
       <c r="G124" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H124" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I124" s="7">
+        <v>12</v>
+      </c>
+      <c r="J124" s="7">
+        <v>31</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>120</v>
       </c>
@@ -3663,8 +5189,20 @@
       <c r="G125" s="7">
         <v>76</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H125" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I125" s="7">
+        <v>12</v>
+      </c>
+      <c r="J125" s="7">
+        <v>31</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>122</v>
       </c>
@@ -3683,8 +5221,20 @@
       <c r="G126" s="7">
         <v>76</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H126" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I126" s="7">
+        <v>12</v>
+      </c>
+      <c r="J126" s="7">
+        <v>31</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>122</v>
       </c>
@@ -3703,8 +5253,20 @@
       <c r="G127" s="7">
         <v>77</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H127" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I127" s="7">
+        <v>12</v>
+      </c>
+      <c r="J127" s="7">
+        <v>31</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>122</v>
       </c>
@@ -3723,8 +5285,20 @@
       <c r="G128" s="7">
         <v>78</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H128" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I128" s="7">
+        <v>12</v>
+      </c>
+      <c r="J128" s="7">
+        <v>31</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>122</v>
       </c>
@@ -3743,8 +5317,20 @@
       <c r="G129" s="7">
         <v>79</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H129" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I129" s="7">
+        <v>12</v>
+      </c>
+      <c r="J129" s="7">
+        <v>31</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>122</v>
       </c>
@@ -3763,8 +5349,20 @@
       <c r="G130" s="7">
         <v>80</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H130" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I130" s="7">
+        <v>12</v>
+      </c>
+      <c r="J130" s="7">
+        <v>31</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>124</v>
       </c>
@@ -3783,8 +5381,20 @@
       <c r="G131" s="7">
         <v>80</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H131" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I131" s="7">
+        <v>12</v>
+      </c>
+      <c r="J131" s="7">
+        <v>31</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>124</v>
       </c>
@@ -3803,8 +5413,20 @@
       <c r="G132" s="7">
         <v>81</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H132" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I132" s="7">
+        <v>12</v>
+      </c>
+      <c r="J132" s="7">
+        <v>31</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>124</v>
       </c>
@@ -3823,8 +5445,20 @@
       <c r="G133" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H133" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I133" s="7">
+        <v>12</v>
+      </c>
+      <c r="J133" s="7">
+        <v>31</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>124</v>
       </c>
@@ -3843,8 +5477,20 @@
       <c r="G134" s="7">
         <v>83</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H134" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I134" s="7">
+        <v>12</v>
+      </c>
+      <c r="J134" s="7">
+        <v>31</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>124</v>
       </c>
@@ -3863,8 +5509,20 @@
       <c r="G135" s="7">
         <v>84</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H135" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I135" s="7">
+        <v>12</v>
+      </c>
+      <c r="J135" s="7">
+        <v>31</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>124</v>
       </c>
@@ -3883,8 +5541,20 @@
       <c r="G136" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H136" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I136" s="7">
+        <v>12</v>
+      </c>
+      <c r="J136" s="7">
+        <v>31</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>126</v>
       </c>
@@ -3903,8 +5573,20 @@
       <c r="G137" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H137" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I137" s="7">
+        <v>12</v>
+      </c>
+      <c r="J137" s="7">
+        <v>31</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>126</v>
       </c>
@@ -3923,8 +5605,20 @@
       <c r="G138" s="7">
         <v>86</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H138" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I138" s="7">
+        <v>12</v>
+      </c>
+      <c r="J138" s="7">
+        <v>31</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>126</v>
       </c>
@@ -3943,8 +5637,20 @@
       <c r="G139" s="7">
         <v>87</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H139" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I139" s="7">
+        <v>12</v>
+      </c>
+      <c r="J139" s="7">
+        <v>31</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>126</v>
       </c>
@@ -3963,8 +5669,20 @@
       <c r="G140" s="7">
         <v>88</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H140" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I140" s="7">
+        <v>12</v>
+      </c>
+      <c r="J140" s="7">
+        <v>31</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>126</v>
       </c>
@@ -3983,8 +5701,20 @@
       <c r="G141" s="7">
         <v>89</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H141" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I141" s="7">
+        <v>12</v>
+      </c>
+      <c r="J141" s="7">
+        <v>31</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>128</v>
       </c>
@@ -4003,8 +5733,20 @@
       <c r="G142" s="7">
         <v>89</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H142" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I142" s="7">
+        <v>12</v>
+      </c>
+      <c r="J142" s="7">
+        <v>31</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>128</v>
       </c>
@@ -4023,8 +5765,20 @@
       <c r="G143" s="7">
         <v>90</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H143" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I143" s="7">
+        <v>12</v>
+      </c>
+      <c r="J143" s="7">
+        <v>31</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>130</v>
       </c>
@@ -4043,8 +5797,20 @@
       <c r="G144" s="7">
         <v>90</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H144" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I144" s="7">
+        <v>12</v>
+      </c>
+      <c r="J144" s="7">
+        <v>31</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>130</v>
       </c>
@@ -4063,8 +5829,20 @@
       <c r="G145" s="7">
         <v>91</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H145" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I145" s="7">
+        <v>12</v>
+      </c>
+      <c r="J145" s="7">
+        <v>31</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>130</v>
       </c>
@@ -4083,8 +5861,20 @@
       <c r="G146" s="7">
         <v>92</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H146" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I146" s="7">
+        <v>12</v>
+      </c>
+      <c r="J146" s="7">
+        <v>31</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>130</v>
       </c>
@@ -4103,8 +5893,20 @@
       <c r="G147" s="7">
         <v>93</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H147" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I147" s="7">
+        <v>12</v>
+      </c>
+      <c r="J147" s="7">
+        <v>31</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>130</v>
       </c>
@@ -4123,8 +5925,20 @@
       <c r="G148" s="7">
         <v>94</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H148" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I148" s="7">
+        <v>12</v>
+      </c>
+      <c r="J148" s="7">
+        <v>31</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>132</v>
       </c>
@@ -4143,8 +5957,20 @@
       <c r="G149" s="7">
         <v>94</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H149" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I149" s="7">
+        <v>12</v>
+      </c>
+      <c r="J149" s="7">
+        <v>31</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>132</v>
       </c>
@@ -4163,8 +5989,20 @@
       <c r="G150" s="7">
         <v>95</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H150" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I150" s="7">
+        <v>12</v>
+      </c>
+      <c r="J150" s="7">
+        <v>31</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>132</v>
       </c>
@@ -4183,8 +6021,20 @@
       <c r="G151" s="7">
         <v>96</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H151" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I151" s="7">
+        <v>12</v>
+      </c>
+      <c r="J151" s="7">
+        <v>31</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>132</v>
       </c>
@@ -4203,8 +6053,20 @@
       <c r="G152" s="7">
         <v>97</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H152" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I152" s="7">
+        <v>12</v>
+      </c>
+      <c r="J152" s="7">
+        <v>31</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>134</v>
       </c>
@@ -4223,8 +6085,20 @@
       <c r="G153" s="7">
         <v>97</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H153" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I153" s="7">
+        <v>12</v>
+      </c>
+      <c r="J153" s="7">
+        <v>31</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>134</v>
       </c>
@@ -4243,8 +6117,20 @@
       <c r="G154" s="7">
         <v>98</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H154" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I154" s="7">
+        <v>12</v>
+      </c>
+      <c r="J154" s="7">
+        <v>31</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>134</v>
       </c>
@@ -4263,8 +6149,20 @@
       <c r="G155" s="7">
         <v>99</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H155" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I155" s="7">
+        <v>12</v>
+      </c>
+      <c r="J155" s="7">
+        <v>31</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>134</v>
       </c>
@@ -4283,8 +6181,20 @@
       <c r="G156" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H156" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I156" s="7">
+        <v>12</v>
+      </c>
+      <c r="J156" s="7">
+        <v>31</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>136</v>
       </c>
@@ -4303,8 +6213,20 @@
       <c r="G157" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H157" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I157" s="7">
+        <v>12</v>
+      </c>
+      <c r="J157" s="7">
+        <v>31</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>136</v>
       </c>
@@ -4323,8 +6245,20 @@
       <c r="G158" s="7">
         <v>101</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H158" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I158" s="7">
+        <v>12</v>
+      </c>
+      <c r="J158" s="7">
+        <v>31</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>136</v>
       </c>
@@ -4343,8 +6277,20 @@
       <c r="G159" s="7">
         <v>102</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H159" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I159" s="7">
+        <v>12</v>
+      </c>
+      <c r="J159" s="7">
+        <v>31</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>138</v>
       </c>
@@ -4363,8 +6309,20 @@
       <c r="G160" s="7">
         <v>102</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H160" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I160" s="7">
+        <v>12</v>
+      </c>
+      <c r="J160" s="7">
+        <v>31</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>140</v>
       </c>
@@ -4383,8 +6341,20 @@
       <c r="G161" s="7">
         <v>102</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H161" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I161" s="7">
+        <v>12</v>
+      </c>
+      <c r="J161" s="7">
+        <v>31</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>142</v>
       </c>
@@ -4403,8 +6373,20 @@
       <c r="G162" s="7">
         <v>103</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H162" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I162" s="7">
+        <v>12</v>
+      </c>
+      <c r="J162" s="7">
+        <v>31</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>144</v>
       </c>
@@ -4423,8 +6405,20 @@
       <c r="G163" s="7">
         <v>103</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H163" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I163" s="7">
+        <v>12</v>
+      </c>
+      <c r="J163" s="7">
+        <v>31</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>146</v>
       </c>
@@ -4443,8 +6437,20 @@
       <c r="G164" s="7">
         <v>103</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H164" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I164" s="7">
+        <v>12</v>
+      </c>
+      <c r="J164" s="7">
+        <v>31</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>146</v>
       </c>
@@ -4463,8 +6469,20 @@
       <c r="G165" s="7">
         <v>104</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H165" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I165" s="7">
+        <v>12</v>
+      </c>
+      <c r="J165" s="7">
+        <v>31</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>146</v>
       </c>
@@ -4483,8 +6501,20 @@
       <c r="G166" s="7">
         <v>105</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H166" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I166" s="7">
+        <v>12</v>
+      </c>
+      <c r="J166" s="7">
+        <v>31</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>146</v>
       </c>
@@ -4503,8 +6533,20 @@
       <c r="G167" s="7">
         <v>106</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H167" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I167" s="7">
+        <v>12</v>
+      </c>
+      <c r="J167" s="7">
+        <v>31</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>146</v>
       </c>
@@ -4523,8 +6565,20 @@
       <c r="G168" s="7">
         <v>107</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H168" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I168" s="7">
+        <v>12</v>
+      </c>
+      <c r="J168" s="7">
+        <v>31</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>146</v>
       </c>
@@ -4543,8 +6597,20 @@
       <c r="G169" s="7">
         <v>108</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H169" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I169" s="7">
+        <v>12</v>
+      </c>
+      <c r="J169" s="7">
+        <v>31</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>148</v>
       </c>
@@ -4563,8 +6629,20 @@
       <c r="G170" s="7">
         <v>108</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H170" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I170" s="7">
+        <v>12</v>
+      </c>
+      <c r="J170" s="7">
+        <v>31</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>148</v>
       </c>
@@ -4583,8 +6661,20 @@
       <c r="G171" s="7">
         <v>109</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H171" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I171" s="7">
+        <v>12</v>
+      </c>
+      <c r="J171" s="7">
+        <v>31</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>148</v>
       </c>
@@ -4603,8 +6693,20 @@
       <c r="G172" s="7">
         <v>110</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H172" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I172" s="7">
+        <v>12</v>
+      </c>
+      <c r="J172" s="7">
+        <v>31</v>
+      </c>
+      <c r="K172" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>148</v>
       </c>
@@ -4623,8 +6725,20 @@
       <c r="G173" s="7">
         <v>111</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H173" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I173" s="7">
+        <v>12</v>
+      </c>
+      <c r="J173" s="7">
+        <v>31</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>150</v>
       </c>
@@ -4643,8 +6757,20 @@
       <c r="G174" s="7">
         <v>111</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H174" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I174" s="7">
+        <v>12</v>
+      </c>
+      <c r="J174" s="7">
+        <v>31</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>150</v>
       </c>
@@ -4663,8 +6789,20 @@
       <c r="G175" s="7">
         <v>112</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H175" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I175" s="7">
+        <v>12</v>
+      </c>
+      <c r="J175" s="7">
+        <v>31</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>152</v>
       </c>
@@ -4683,8 +6821,20 @@
       <c r="G176" s="7">
         <v>113</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H176" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I176" s="7">
+        <v>12</v>
+      </c>
+      <c r="J176" s="7">
+        <v>31</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>152</v>
       </c>
@@ -4703,8 +6853,20 @@
       <c r="G177" s="7">
         <v>114</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H177" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I177" s="7">
+        <v>12</v>
+      </c>
+      <c r="J177" s="7">
+        <v>31</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>152</v>
       </c>
@@ -4723,8 +6885,20 @@
       <c r="G178" s="7">
         <v>115</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H178" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I178" s="7">
+        <v>12</v>
+      </c>
+      <c r="J178" s="7">
+        <v>31</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>152</v>
       </c>
@@ -4743,8 +6917,20 @@
       <c r="G179" s="7">
         <v>116</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H179" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I179" s="7">
+        <v>12</v>
+      </c>
+      <c r="J179" s="7">
+        <v>31</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>152</v>
       </c>
@@ -4763,8 +6949,20 @@
       <c r="G180" s="7">
         <v>117</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H180" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I180" s="7">
+        <v>12</v>
+      </c>
+      <c r="J180" s="7">
+        <v>31</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>152</v>
       </c>
@@ -4783,8 +6981,20 @@
       <c r="G181" s="7">
         <v>118</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H181" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I181" s="7">
+        <v>12</v>
+      </c>
+      <c r="J181" s="7">
+        <v>31</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>152</v>
       </c>
@@ -4803,8 +7013,20 @@
       <c r="G182" s="7">
         <v>119</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H182" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I182" s="7">
+        <v>12</v>
+      </c>
+      <c r="J182" s="7">
+        <v>31</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>154</v>
       </c>
@@ -4823,8 +7045,20 @@
       <c r="G183" s="7">
         <v>119</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H183" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I183" s="7">
+        <v>12</v>
+      </c>
+      <c r="J183" s="7">
+        <v>31</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>154</v>
       </c>
@@ -4843,8 +7077,20 @@
       <c r="G184" s="7">
         <v>120</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H184" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I184" s="7">
+        <v>12</v>
+      </c>
+      <c r="J184" s="7">
+        <v>31</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>154</v>
       </c>
@@ -4863,8 +7109,20 @@
       <c r="G185" s="7">
         <v>121</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H185" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I185" s="7">
+        <v>12</v>
+      </c>
+      <c r="J185" s="7">
+        <v>31</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>156</v>
       </c>
@@ -4883,8 +7141,20 @@
       <c r="G186" s="7">
         <v>121</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H186" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I186" s="7">
+        <v>12</v>
+      </c>
+      <c r="J186" s="7">
+        <v>31</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>156</v>
       </c>
@@ -4903,8 +7173,20 @@
       <c r="G187" s="7">
         <v>122</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H187" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I187" s="7">
+        <v>12</v>
+      </c>
+      <c r="J187" s="7">
+        <v>31</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>156</v>
       </c>
@@ -4923,8 +7205,20 @@
       <c r="G188" s="7">
         <v>123</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H188" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I188" s="7">
+        <v>12</v>
+      </c>
+      <c r="J188" s="7">
+        <v>31</v>
+      </c>
+      <c r="K188" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>158</v>
       </c>
@@ -4943,8 +7237,20 @@
       <c r="G189" s="7">
         <v>124</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H189" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I189" s="7">
+        <v>12</v>
+      </c>
+      <c r="J189" s="7">
+        <v>31</v>
+      </c>
+      <c r="K189" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>160</v>
       </c>
@@ -4963,8 +7269,20 @@
       <c r="G190" s="7">
         <v>124</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H190" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I190" s="7">
+        <v>12</v>
+      </c>
+      <c r="J190" s="7">
+        <v>31</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>162</v>
       </c>
@@ -4983,8 +7301,20 @@
       <c r="G191" s="7">
         <v>124</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H191" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I191" s="7">
+        <v>12</v>
+      </c>
+      <c r="J191" s="7">
+        <v>31</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>164</v>
       </c>
@@ -5003,8 +7333,20 @@
       <c r="G192" s="7">
         <v>124</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H192" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I192" s="7">
+        <v>12</v>
+      </c>
+      <c r="J192" s="7">
+        <v>31</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>164</v>
       </c>
@@ -5023,8 +7365,20 @@
       <c r="G193" s="7">
         <v>125</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H193" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I193" s="7">
+        <v>12</v>
+      </c>
+      <c r="J193" s="7">
+        <v>31</v>
+      </c>
+      <c r="K193" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>164</v>
       </c>
@@ -5043,8 +7397,20 @@
       <c r="G194" s="7">
         <v>126</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H194" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I194" s="7">
+        <v>12</v>
+      </c>
+      <c r="J194" s="7">
+        <v>31</v>
+      </c>
+      <c r="K194" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>166</v>
       </c>
@@ -5063,8 +7429,20 @@
       <c r="G195" s="7">
         <v>126</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H195" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I195" s="7">
+        <v>12</v>
+      </c>
+      <c r="J195" s="7">
+        <v>31</v>
+      </c>
+      <c r="K195" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>166</v>
       </c>
@@ -5083,8 +7461,20 @@
       <c r="G196" s="7">
         <v>127</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H196" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I196" s="7">
+        <v>12</v>
+      </c>
+      <c r="J196" s="7">
+        <v>31</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>166</v>
       </c>
@@ -5103,8 +7493,20 @@
       <c r="G197" s="7">
         <v>128</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H197" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I197" s="7">
+        <v>12</v>
+      </c>
+      <c r="J197" s="7">
+        <v>31</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>168</v>
       </c>
@@ -5123,8 +7525,20 @@
       <c r="G198" s="7">
         <v>128</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H198" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I198" s="7">
+        <v>12</v>
+      </c>
+      <c r="J198" s="7">
+        <v>31</v>
+      </c>
+      <c r="K198" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>170</v>
       </c>
@@ -5143,8 +7557,20 @@
       <c r="G199" s="7">
         <v>128</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H199" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I199" s="7">
+        <v>12</v>
+      </c>
+      <c r="J199" s="7">
+        <v>31</v>
+      </c>
+      <c r="K199" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>170</v>
       </c>
@@ -5163,8 +7589,20 @@
       <c r="G200" s="7">
         <v>129</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H200" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I200" s="7">
+        <v>12</v>
+      </c>
+      <c r="J200" s="7">
+        <v>31</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>170</v>
       </c>
@@ -5183,8 +7621,20 @@
       <c r="G201" s="7">
         <v>130</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H201" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I201" s="7">
+        <v>12</v>
+      </c>
+      <c r="J201" s="7">
+        <v>31</v>
+      </c>
+      <c r="K201" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>172</v>
       </c>
@@ -5203,8 +7653,20 @@
       <c r="G202" s="7">
         <v>130</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H202" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I202" s="7">
+        <v>12</v>
+      </c>
+      <c r="J202" s="7">
+        <v>31</v>
+      </c>
+      <c r="K202" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>174</v>
       </c>
@@ -5223,8 +7685,20 @@
       <c r="G203" s="7">
         <v>130</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H203" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I203" s="7">
+        <v>12</v>
+      </c>
+      <c r="J203" s="7">
+        <v>31</v>
+      </c>
+      <c r="K203" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>174</v>
       </c>
@@ -5243,8 +7717,20 @@
       <c r="G204" s="7">
         <v>131</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H204" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I204" s="7">
+        <v>12</v>
+      </c>
+      <c r="J204" s="7">
+        <v>31</v>
+      </c>
+      <c r="K204" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>174</v>
       </c>
@@ -5263,8 +7749,20 @@
       <c r="G205" s="7">
         <v>132</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H205" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I205" s="7">
+        <v>12</v>
+      </c>
+      <c r="J205" s="7">
+        <v>31</v>
+      </c>
+      <c r="K205" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>174</v>
       </c>
@@ -5283,8 +7781,20 @@
       <c r="G206" s="7">
         <v>133</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H206" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I206" s="7">
+        <v>12</v>
+      </c>
+      <c r="J206" s="7">
+        <v>31</v>
+      </c>
+      <c r="K206" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>176</v>
       </c>
@@ -5303,8 +7813,20 @@
       <c r="G207" s="7">
         <v>133</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H207" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I207" s="7">
+        <v>12</v>
+      </c>
+      <c r="J207" s="7">
+        <v>31</v>
+      </c>
+      <c r="K207" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>176</v>
       </c>
@@ -5323,8 +7845,20 @@
       <c r="G208" s="7">
         <v>134</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H208" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I208" s="7">
+        <v>12</v>
+      </c>
+      <c r="J208" s="7">
+        <v>31</v>
+      </c>
+      <c r="K208" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>176</v>
       </c>
@@ -5343,8 +7877,20 @@
       <c r="G209" s="7">
         <v>135</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H209" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I209" s="7">
+        <v>12</v>
+      </c>
+      <c r="J209" s="7">
+        <v>31</v>
+      </c>
+      <c r="K209" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>178</v>
       </c>
@@ -5363,8 +7909,20 @@
       <c r="G210" s="7">
         <v>135</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H210" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I210" s="7">
+        <v>12</v>
+      </c>
+      <c r="J210" s="7">
+        <v>31</v>
+      </c>
+      <c r="K210" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>180</v>
       </c>
@@ -5383,8 +7941,20 @@
       <c r="G211" s="7">
         <v>135</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H211" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I211" s="7">
+        <v>12</v>
+      </c>
+      <c r="J211" s="7">
+        <v>31</v>
+      </c>
+      <c r="K211" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>182</v>
       </c>
@@ -5403,8 +7973,20 @@
       <c r="G212" s="7">
         <v>136</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H212" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I212" s="7">
+        <v>12</v>
+      </c>
+      <c r="J212" s="7">
+        <v>31</v>
+      </c>
+      <c r="K212" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>184</v>
       </c>
@@ -5423,8 +8005,20 @@
       <c r="G213" s="7">
         <v>136</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H213" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I213" s="7">
+        <v>12</v>
+      </c>
+      <c r="J213" s="7">
+        <v>31</v>
+      </c>
+      <c r="K213" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>186</v>
       </c>
@@ -5443,8 +8037,20 @@
       <c r="G214" s="7">
         <v>136</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H214" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I214" s="7">
+        <v>12</v>
+      </c>
+      <c r="J214" s="7">
+        <v>31</v>
+      </c>
+      <c r="K214" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>186</v>
       </c>
@@ -5463,8 +8069,20 @@
       <c r="G215" s="7">
         <v>137</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H215" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I215" s="7">
+        <v>12</v>
+      </c>
+      <c r="J215" s="7">
+        <v>31</v>
+      </c>
+      <c r="K215" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>186</v>
       </c>
@@ -5483,8 +8101,20 @@
       <c r="G216" s="7">
         <v>138</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H216" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I216" s="7">
+        <v>12</v>
+      </c>
+      <c r="J216" s="7">
+        <v>31</v>
+      </c>
+      <c r="K216" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>186</v>
       </c>
@@ -5503,8 +8133,20 @@
       <c r="G217" s="7">
         <v>139</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H217" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I217" s="7">
+        <v>12</v>
+      </c>
+      <c r="J217" s="7">
+        <v>31</v>
+      </c>
+      <c r="K217" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>186</v>
       </c>
@@ -5523,8 +8165,20 @@
       <c r="G218" s="7">
         <v>140</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H218" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I218" s="7">
+        <v>12</v>
+      </c>
+      <c r="J218" s="7">
+        <v>31</v>
+      </c>
+      <c r="K218" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>186</v>
       </c>
@@ -5543,8 +8197,20 @@
       <c r="G219" s="7">
         <v>141</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H219" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I219" s="7">
+        <v>12</v>
+      </c>
+      <c r="J219" s="7">
+        <v>31</v>
+      </c>
+      <c r="K219" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>186</v>
       </c>
@@ -5563,8 +8229,20 @@
       <c r="G220" s="7">
         <v>142</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H220" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I220" s="7">
+        <v>12</v>
+      </c>
+      <c r="J220" s="7">
+        <v>31</v>
+      </c>
+      <c r="K220" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>186</v>
       </c>
@@ -5583,8 +8261,20 @@
       <c r="G221" s="7">
         <v>143</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H221" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I221" s="7">
+        <v>12</v>
+      </c>
+      <c r="J221" s="7">
+        <v>31</v>
+      </c>
+      <c r="K221" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>186</v>
       </c>
@@ -5603,8 +8293,20 @@
       <c r="G222" s="7">
         <v>144</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H222" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I222" s="7">
+        <v>12</v>
+      </c>
+      <c r="J222" s="7">
+        <v>31</v>
+      </c>
+      <c r="K222" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>188</v>
       </c>
@@ -5623,8 +8325,20 @@
       <c r="G223" s="7">
         <v>144</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H223" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I223" s="7">
+        <v>12</v>
+      </c>
+      <c r="J223" s="7">
+        <v>31</v>
+      </c>
+      <c r="K223" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>188</v>
       </c>
@@ -5643,8 +8357,20 @@
       <c r="G224" s="7">
         <v>145</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H224" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I224" s="7">
+        <v>12</v>
+      </c>
+      <c r="J224" s="7">
+        <v>31</v>
+      </c>
+      <c r="K224" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>188</v>
       </c>
@@ -5663,8 +8389,20 @@
       <c r="G225" s="7">
         <v>146</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H225" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I225" s="7">
+        <v>12</v>
+      </c>
+      <c r="J225" s="7">
+        <v>31</v>
+      </c>
+      <c r="K225" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>190</v>
       </c>
@@ -5683,8 +8421,20 @@
       <c r="G226" s="7">
         <v>146</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H226" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I226" s="7">
+        <v>12</v>
+      </c>
+      <c r="J226" s="7">
+        <v>31</v>
+      </c>
+      <c r="K226" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>190</v>
       </c>
@@ -5703,8 +8453,20 @@
       <c r="G227" s="7">
         <v>147</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H227" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I227" s="7">
+        <v>12</v>
+      </c>
+      <c r="J227" s="7">
+        <v>31</v>
+      </c>
+      <c r="K227" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>190</v>
       </c>
@@ -5723,8 +8485,20 @@
       <c r="G228" s="7">
         <v>148</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H228" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I228" s="7">
+        <v>12</v>
+      </c>
+      <c r="J228" s="7">
+        <v>31</v>
+      </c>
+      <c r="K228" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>192</v>
       </c>
@@ -5743,8 +8517,20 @@
       <c r="G229" s="7">
         <v>148</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H229" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I229" s="7">
+        <v>12</v>
+      </c>
+      <c r="J229" s="7">
+        <v>31</v>
+      </c>
+      <c r="K229" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>192</v>
       </c>
@@ -5763,8 +8549,20 @@
       <c r="G230" s="7">
         <v>149</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H230" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I230" s="7">
+        <v>12</v>
+      </c>
+      <c r="J230" s="7">
+        <v>31</v>
+      </c>
+      <c r="K230" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>194</v>
       </c>
@@ -5783,8 +8581,20 @@
       <c r="G231" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H231" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I231" s="7">
+        <v>12</v>
+      </c>
+      <c r="J231" s="7">
+        <v>31</v>
+      </c>
+      <c r="K231" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>194</v>
       </c>
@@ -5803,8 +8613,20 @@
       <c r="G232" s="7">
         <v>151</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H232" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I232" s="7">
+        <v>12</v>
+      </c>
+      <c r="J232" s="7">
+        <v>31</v>
+      </c>
+      <c r="K232" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>196</v>
       </c>
@@ -5823,8 +8645,20 @@
       <c r="G233" s="7">
         <v>151</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H233" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I233" s="7">
+        <v>12</v>
+      </c>
+      <c r="J233" s="7">
+        <v>31</v>
+      </c>
+      <c r="K233" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>196</v>
       </c>
@@ -5843,8 +8677,20 @@
       <c r="G234" s="7">
         <v>152</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H234" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I234" s="7">
+        <v>12</v>
+      </c>
+      <c r="J234" s="7">
+        <v>31</v>
+      </c>
+      <c r="K234" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>196</v>
       </c>
@@ -5863,8 +8709,20 @@
       <c r="G235" s="7">
         <v>153</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H235" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I235" s="7">
+        <v>12</v>
+      </c>
+      <c r="J235" s="7">
+        <v>31</v>
+      </c>
+      <c r="K235" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>196</v>
       </c>
@@ -5883,8 +8741,20 @@
       <c r="G236" s="7">
         <v>154</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H236" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I236" s="7">
+        <v>12</v>
+      </c>
+      <c r="J236" s="7">
+        <v>31</v>
+      </c>
+      <c r="K236" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>196</v>
       </c>
@@ -5903,8 +8773,20 @@
       <c r="G237" s="7">
         <v>155</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H237" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I237" s="7">
+        <v>12</v>
+      </c>
+      <c r="J237" s="7">
+        <v>31</v>
+      </c>
+      <c r="K237" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>196</v>
       </c>
@@ -5923,8 +8805,20 @@
       <c r="G238" s="7">
         <v>156</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H238" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I238" s="7">
+        <v>12</v>
+      </c>
+      <c r="J238" s="7">
+        <v>31</v>
+      </c>
+      <c r="K238" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>196</v>
       </c>
@@ -5943,8 +8837,20 @@
       <c r="G239" s="7">
         <v>157</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H239" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I239" s="7">
+        <v>12</v>
+      </c>
+      <c r="J239" s="7">
+        <v>31</v>
+      </c>
+      <c r="K239" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>198</v>
       </c>
@@ -5963,8 +8869,20 @@
       <c r="G240" s="7">
         <v>157</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H240" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I240" s="7">
+        <v>12</v>
+      </c>
+      <c r="J240" s="7">
+        <v>31</v>
+      </c>
+      <c r="K240" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>198</v>
       </c>
@@ -5983,8 +8901,20 @@
       <c r="G241" s="7">
         <v>158</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H241" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I241" s="7">
+        <v>12</v>
+      </c>
+      <c r="J241" s="7">
+        <v>31</v>
+      </c>
+      <c r="K241" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>198</v>
       </c>
@@ -6003,8 +8933,20 @@
       <c r="G242" s="7">
         <v>159</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H242" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I242" s="7">
+        <v>12</v>
+      </c>
+      <c r="J242" s="7">
+        <v>31</v>
+      </c>
+      <c r="K242" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>198</v>
       </c>
@@ -6023,8 +8965,20 @@
       <c r="G243" s="7">
         <v>160</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H243" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I243" s="7">
+        <v>12</v>
+      </c>
+      <c r="J243" s="7">
+        <v>31</v>
+      </c>
+      <c r="K243" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>198</v>
       </c>
@@ -6043,8 +8997,20 @@
       <c r="G244" s="7">
         <v>161</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H244" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I244" s="7">
+        <v>12</v>
+      </c>
+      <c r="J244" s="7">
+        <v>31</v>
+      </c>
+      <c r="K244" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>198</v>
       </c>
@@ -6063,8 +9029,20 @@
       <c r="G245" s="7">
         <v>162</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H245" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I245" s="7">
+        <v>12</v>
+      </c>
+      <c r="J245" s="7">
+        <v>31</v>
+      </c>
+      <c r="K245" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>198</v>
       </c>
@@ -6083,8 +9061,20 @@
       <c r="G246" s="7">
         <v>163</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H246" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I246" s="7">
+        <v>12</v>
+      </c>
+      <c r="J246" s="7">
+        <v>31</v>
+      </c>
+      <c r="K246" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>200</v>
       </c>
@@ -6103,8 +9093,20 @@
       <c r="G247" s="7">
         <v>163</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H247" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I247" s="7">
+        <v>12</v>
+      </c>
+      <c r="J247" s="7">
+        <v>31</v>
+      </c>
+      <c r="K247" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>200</v>
       </c>
@@ -6123,8 +9125,20 @@
       <c r="G248" s="7">
         <v>164</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H248" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I248" s="7">
+        <v>12</v>
+      </c>
+      <c r="J248" s="7">
+        <v>31</v>
+      </c>
+      <c r="K248" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>200</v>
       </c>
@@ -6143,8 +9157,20 @@
       <c r="G249" s="7">
         <v>165</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H249" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I249" s="7">
+        <v>12</v>
+      </c>
+      <c r="J249" s="7">
+        <v>31</v>
+      </c>
+      <c r="K249" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>200</v>
       </c>
@@ -6163,8 +9189,20 @@
       <c r="G250" s="7">
         <v>166</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H250" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I250" s="7">
+        <v>12</v>
+      </c>
+      <c r="J250" s="7">
+        <v>31</v>
+      </c>
+      <c r="K250" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>200</v>
       </c>
@@ -6183,8 +9221,20 @@
       <c r="G251" s="7">
         <v>167</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H251" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I251" s="7">
+        <v>12</v>
+      </c>
+      <c r="J251" s="7">
+        <v>31</v>
+      </c>
+      <c r="K251" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>200</v>
       </c>
@@ -6203,8 +9253,20 @@
       <c r="G252" s="7">
         <v>168</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H252" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I252" s="7">
+        <v>12</v>
+      </c>
+      <c r="J252" s="7">
+        <v>31</v>
+      </c>
+      <c r="K252" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>200</v>
       </c>
@@ -6223,8 +9285,20 @@
       <c r="G253" s="7">
         <v>169</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H253" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I253" s="7">
+        <v>12</v>
+      </c>
+      <c r="J253" s="7">
+        <v>31</v>
+      </c>
+      <c r="K253" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>200</v>
       </c>
@@ -6243,8 +9317,20 @@
       <c r="G254" s="7">
         <v>170</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H254" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I254" s="7">
+        <v>12</v>
+      </c>
+      <c r="J254" s="7">
+        <v>31</v>
+      </c>
+      <c r="K254" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>200</v>
       </c>
@@ -6263,8 +9349,20 @@
       <c r="G255" s="7">
         <v>171</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H255" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I255" s="7">
+        <v>12</v>
+      </c>
+      <c r="J255" s="7">
+        <v>31</v>
+      </c>
+      <c r="K255" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>200</v>
       </c>
@@ -6283,8 +9381,20 @@
       <c r="G256" s="7">
         <v>172</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H256" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I256" s="7">
+        <v>12</v>
+      </c>
+      <c r="J256" s="7">
+        <v>31</v>
+      </c>
+      <c r="K256" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>200</v>
       </c>
@@ -6303,8 +9413,20 @@
       <c r="G257" s="7">
         <v>173</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H257" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I257" s="7">
+        <v>12</v>
+      </c>
+      <c r="J257" s="7">
+        <v>31</v>
+      </c>
+      <c r="K257" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>200</v>
       </c>
@@ -6323,8 +9445,20 @@
       <c r="G258" s="7">
         <v>174</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H258" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I258" s="7">
+        <v>12</v>
+      </c>
+      <c r="J258" s="7">
+        <v>31</v>
+      </c>
+      <c r="K258" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>200</v>
       </c>
@@ -6343,8 +9477,20 @@
       <c r="G259" s="7">
         <v>175</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H259" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I259" s="7">
+        <v>12</v>
+      </c>
+      <c r="J259" s="7">
+        <v>31</v>
+      </c>
+      <c r="K259" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>200</v>
       </c>
@@ -6363,8 +9509,20 @@
       <c r="G260" s="7">
         <v>176</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H260" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I260" s="7">
+        <v>12</v>
+      </c>
+      <c r="J260" s="7">
+        <v>31</v>
+      </c>
+      <c r="K260" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>200</v>
       </c>
@@ -6383,8 +9541,20 @@
       <c r="G261" s="7">
         <v>177</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H261" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I261" s="7">
+        <v>12</v>
+      </c>
+      <c r="J261" s="7">
+        <v>31</v>
+      </c>
+      <c r="K261" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>200</v>
       </c>
@@ -6403,8 +9573,20 @@
       <c r="G262" s="7">
         <v>178</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H262" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I262" s="7">
+        <v>12</v>
+      </c>
+      <c r="J262" s="7">
+        <v>31</v>
+      </c>
+      <c r="K262" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>200</v>
       </c>
@@ -6423,8 +9605,20 @@
       <c r="G263" s="7">
         <v>179</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H263" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I263" s="7">
+        <v>12</v>
+      </c>
+      <c r="J263" s="7">
+        <v>31</v>
+      </c>
+      <c r="K263" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>200</v>
       </c>
@@ -6443,8 +9637,20 @@
       <c r="G264" s="7">
         <v>180</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H264" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I264" s="7">
+        <v>12</v>
+      </c>
+      <c r="J264" s="7">
+        <v>31</v>
+      </c>
+      <c r="K264" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>200</v>
       </c>
@@ -6463,8 +9669,20 @@
       <c r="G265" s="7">
         <v>181</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H265" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I265" s="7">
+        <v>12</v>
+      </c>
+      <c r="J265" s="7">
+        <v>31</v>
+      </c>
+      <c r="K265" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>200</v>
       </c>
@@ -6483,8 +9701,20 @@
       <c r="G266" s="7">
         <v>182</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H266" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I266" s="7">
+        <v>12</v>
+      </c>
+      <c r="J266" s="7">
+        <v>31</v>
+      </c>
+      <c r="K266" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>200</v>
       </c>
@@ -6503,8 +9733,20 @@
       <c r="G267" s="7">
         <v>183</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H267" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I267" s="7">
+        <v>12</v>
+      </c>
+      <c r="J267" s="7">
+        <v>31</v>
+      </c>
+      <c r="K267" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>200</v>
       </c>
@@ -6523,8 +9765,20 @@
       <c r="G268" s="7">
         <v>184</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H268" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I268" s="7">
+        <v>12</v>
+      </c>
+      <c r="J268" s="7">
+        <v>31</v>
+      </c>
+      <c r="K268" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>200</v>
       </c>
@@ -6543,8 +9797,20 @@
       <c r="G269" s="7">
         <v>185</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H269" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I269" s="7">
+        <v>12</v>
+      </c>
+      <c r="J269" s="7">
+        <v>31</v>
+      </c>
+      <c r="K269" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>200</v>
       </c>
@@ -6563,8 +9829,20 @@
       <c r="G270" s="7">
         <v>186</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H270" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I270" s="7">
+        <v>12</v>
+      </c>
+      <c r="J270" s="7">
+        <v>31</v>
+      </c>
+      <c r="K270" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>200</v>
       </c>
@@ -6583,8 +9861,20 @@
       <c r="G271" s="7">
         <v>187</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H271" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I271" s="7">
+        <v>12</v>
+      </c>
+      <c r="J271" s="7">
+        <v>31</v>
+      </c>
+      <c r="K271" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>200</v>
       </c>
@@ -6603,8 +9893,20 @@
       <c r="G272" s="7">
         <v>188</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H272" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I272" s="7">
+        <v>12</v>
+      </c>
+      <c r="J272" s="7">
+        <v>31</v>
+      </c>
+      <c r="K272" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>200</v>
       </c>
@@ -6623,8 +9925,20 @@
       <c r="G273" s="7">
         <v>189</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H273" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I273" s="7">
+        <v>12</v>
+      </c>
+      <c r="J273" s="7">
+        <v>31</v>
+      </c>
+      <c r="K273" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>200</v>
       </c>
@@ -6643,8 +9957,20 @@
       <c r="G274" s="7">
         <v>190</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H274" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I274" s="7">
+        <v>12</v>
+      </c>
+      <c r="J274" s="7">
+        <v>31</v>
+      </c>
+      <c r="K274" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>200</v>
       </c>
@@ -6663,8 +9989,20 @@
       <c r="G275" s="7">
         <v>191</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H275" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I275" s="7">
+        <v>12</v>
+      </c>
+      <c r="J275" s="7">
+        <v>31</v>
+      </c>
+      <c r="K275" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>202</v>
       </c>
@@ -6683,8 +10021,20 @@
       <c r="G276" s="7">
         <v>192</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H276" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I276" s="7">
+        <v>12</v>
+      </c>
+      <c r="J276" s="7">
+        <v>31</v>
+      </c>
+      <c r="K276" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>202</v>
       </c>
@@ -6703,8 +10053,20 @@
       <c r="G277" s="7">
         <v>193</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H277" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I277" s="7">
+        <v>12</v>
+      </c>
+      <c r="J277" s="7">
+        <v>31</v>
+      </c>
+      <c r="K277" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>203</v>
       </c>
@@ -6723,8 +10085,20 @@
       <c r="G278" s="7">
         <v>193</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="H278" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I278" s="7">
+        <v>12</v>
+      </c>
+      <c r="J278" s="7">
+        <v>31</v>
+      </c>
+      <c r="K278" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>205</v>
       </c>
@@ -6743,8 +10117,20 @@
       <c r="G279" s="7">
         <v>193</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H279" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I279" s="7">
+        <v>12</v>
+      </c>
+      <c r="J279" s="7">
+        <v>31</v>
+      </c>
+      <c r="K279" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>205</v>
       </c>
@@ -6763,8 +10149,20 @@
       <c r="G280" s="8">
         <v>194</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H280" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I280" s="7">
+        <v>12</v>
+      </c>
+      <c r="J280" s="7">
+        <v>31</v>
+      </c>
+      <c r="K280" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>205</v>
       </c>
@@ -6782,6 +10180,18 @@
       </c>
       <c r="G281" s="8">
         <v>195</v>
+      </c>
+      <c r="H281" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I281" s="7">
+        <v>12</v>
+      </c>
+      <c r="J281" s="7">
+        <v>31</v>
+      </c>
+      <c r="K281" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
